--- a/contratog.xlsx
+++ b/contratog.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,41 +477,41 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+5511966134418</t>
+          <t>+553171858800</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+556192771804</t>
+          <t>+5511966134418</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+556198454144</t>
+          <t>+556192771804</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -528,29 +528,29 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+5511976440031</t>
+          <t>+556198454144</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+556293286544</t>
+          <t>+5511976440031</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -562,66 +562,100 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+555199100909</t>
+          <t>+556293286544</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+5521965489343</t>
+          <t>+555199100909</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+5511947261969</t>
+          <t>+5521965489343</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
+          <t>+5511947261969</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>+5521985109311</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
           <t>+5521981400589</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>2024-09-09</t>
         </is>

--- a/contratog.xlsx
+++ b/contratog.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -630,7 +630,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5521985109311</t>
+          <t>+5521981400589</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -639,23 +639,6 @@
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>+5521981400589</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>2024-09-09</t>
         </is>

--- a/contratog.xlsx
+++ b/contratog.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -494,41 +494,41 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+5511966134418</t>
+          <t>+556293410347</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+556192771804</t>
+          <t>+5511966134418</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+556198454144</t>
+          <t>+556192771804</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -545,29 +545,29 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+5511976440031</t>
+          <t>+556198454144</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+556293286544</t>
+          <t>+5511976440031</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -579,66 +579,83 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+555199100909</t>
+          <t>+556293286544</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+5521965489343</t>
+          <t>+555199100909</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+5511947261969</t>
+          <t>+5521965489343</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-11</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
+          <t>+5511947261969</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
           <t>+5521981400589</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>2024-09-09</t>
         </is>

--- a/contratog.xlsx
+++ b/contratog.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -613,49 +613,32 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+5521965489343</t>
+          <t>+5511947261969</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-09-11</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5511947261969</t>
+          <t>+5521981400589</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>+5521981400589</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>2024-09-09</t>
         </is>

--- a/contratog.xlsx
+++ b/contratog.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,7 +477,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+553171858800</t>
+          <t>+553187596479</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -487,19 +487,19 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-10-22</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+556293410347</t>
+          <t>+553171858800</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -511,41 +511,41 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+5511966134418</t>
+          <t>+556293410347</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+556192771804</t>
+          <t>+5511966134418</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+556198454144</t>
+          <t>+556192771804</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -562,29 +562,29 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+5511976440031</t>
+          <t>+556198454144</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+556293286544</t>
+          <t>+5511976440031</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -596,49 +596,66 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+555199100909</t>
+          <t>+556293286544</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+5511947261969</t>
+          <t>+555199100909</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
+          <t>+5511947261969</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2024-09-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
           <t>+5521981400589</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>2024-09-09</t>
         </is>

--- a/contratog.xlsx
+++ b/contratog.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -477,7 +477,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>+553187596479</t>
+          <t>+553171858800</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -487,19 +487,19 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-09-30</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+553171858800</t>
+          <t>+556293410347</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -511,41 +511,41 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+556293410347</t>
+          <t>+5511966134418</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-24</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+5511966134418</t>
+          <t>+556192771804</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+556192771804</t>
+          <t>+556198454144</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -562,29 +562,29 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>+556198454144</t>
+          <t>+5511976440031</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>+5511976440031</t>
+          <t>+556293286544</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -596,66 +596,49 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>+556293286544</t>
+          <t>+555199100909</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2024-09-16</t>
+          <t>2024-09-13</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>+555199100909</t>
+          <t>+5511947261969</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-09-10</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>+5511947261969</t>
+          <t>+5521981400589</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>+5521981400589</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>2024-09-09</t>
         </is>

--- a/contratog.xlsx
+++ b/contratog.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -511,7 +511,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+5511966134418</t>
+          <t>+5511976440031</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -521,124 +521,39 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2024-09-24</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+556192771804</t>
+          <t>+556293286544</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2024-09-18</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>+556198454144</t>
+          <t>+5521981400589</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>+5511976440031</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>+556293286544</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>+555199100909</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>+5511947261969</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>+5521981400589</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>2024-09-09</t>
         </is>

--- a/contratog.xlsx
+++ b/contratog.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -494,29 +494,29 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>+556293410347</t>
+          <t>+5511976440031</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-09-16</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>+5511976440031</t>
+          <t>+556293286544</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -528,32 +528,15 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>+556293286544</t>
+          <t>+5521981400589</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>2024-09-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>+5521981400589</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>2024-09-09</t>
         </is>

--- a/contratog.xlsx
+++ b/contratog.xlsx
@@ -61,8 +61,6 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">

--- a/contratog.xlsx
+++ b/contratog.xlsx
@@ -35,7 +35,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -46,6 +46,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -66,9 +72,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -439,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -453,6 +462,46 @@
     <col width="16" customWidth="1" min="1" max="1"/>
     <col width="5" customWidth="1" min="2" max="2"/>
     <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="28" customWidth="1" min="5" max="5"/>
+    <col width="29" customWidth="1" min="6" max="6"/>
+    <col width="23" customWidth="1" min="7" max="7"/>
+    <col width="9" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="22" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="19" customWidth="1" min="13" max="13"/>
+    <col width="19" customWidth="1" min="14" max="14"/>
+    <col width="17" customWidth="1" min="15" max="15"/>
+    <col width="16" customWidth="1" min="16" max="16"/>
+    <col width="27" customWidth="1" min="17" max="17"/>
+    <col width="23" customWidth="1" min="18" max="18"/>
+    <col width="16" customWidth="1" min="19" max="19"/>
+    <col width="10" customWidth="1" min="20" max="20"/>
+    <col width="12" customWidth="1" min="21" max="21"/>
+    <col width="13" customWidth="1" min="22" max="22"/>
+    <col width="12" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="18" customWidth="1" min="29" max="29"/>
+    <col width="14" customWidth="1" min="30" max="30"/>
+    <col width="15" customWidth="1" min="31" max="31"/>
+    <col width="15" customWidth="1" min="32" max="32"/>
+    <col width="13" customWidth="1" min="33" max="33"/>
+    <col width="14" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="35" max="35"/>
+    <col width="10" customWidth="1" min="36" max="36"/>
+    <col width="13" customWidth="1" min="37" max="37"/>
+    <col width="14" customWidth="1" min="38" max="38"/>
+    <col width="20" customWidth="1" min="39" max="39"/>
+    <col width="15" customWidth="1" min="40" max="40"/>
+    <col width="11" customWidth="1" min="41" max="41"/>
+    <col width="27" customWidth="1" min="42" max="42"/>
+    <col width="20" customWidth="1" min="43" max="43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -471,72 +520,362 @@
           <t>Data Inscrição</t>
         </is>
       </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Etiquetas:</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Aguardando mais Documentos</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Aguardando mais Informações</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Analise de Documentos</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Aviação</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>AÇÃO DISTRIBUIDA</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>CADASTRADO</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>CLIENTE_DESISTIU_REC</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>CLIENTE_RECUPERADO</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>COMPLETOU_O_FLUXO</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>CONTRATO ASSINADO</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>ClienteDesistiu</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>Compras Online</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>Consulta com os advogados</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>Contrato e Procuração</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>Desqualificado</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>ELEGÍVEL</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>EM ANÁLISE</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>ERRO NO BOT</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>Hospedagem</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>LEAD 1</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>LEAD 2</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>LEAD 3</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>LEAD 4</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>LEAD 5</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>LEAD2_Recuperado</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>LEAD4INATIVO</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>Lead3_24horas</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>Lead3_48Horas</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>Negativação</t>
+        </is>
+      </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>NÃO ELEGÍVEL</t>
+        </is>
+      </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>Outros</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>POSSÍVEL</t>
+        </is>
+      </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>RECUPERAÇÃO</t>
+        </is>
+      </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>SEM RESPOSTA</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>Serviços Bancários</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>TENTATIVA_REC</t>
+        </is>
+      </c>
+      <c r="AO1" s="2" t="inlineStr">
+        <is>
+          <t>Telefonia</t>
+        </is>
+      </c>
+      <c r="AP1" s="2" t="inlineStr">
+        <is>
+          <t>Verificando Elegibilidade</t>
+        </is>
+      </c>
+      <c r="AQ1" s="2" t="inlineStr">
+        <is>
+          <t>WhatsAppsInválidos</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>+553171858800</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AG2" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>+5511976440031</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N3" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AG3" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>+556293286544</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N4" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AG4" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>+5521981400589</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AI5" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>

--- a/contratog.xlsx
+++ b/contratog.xlsx
@@ -35,7 +35,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -46,12 +46,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -72,12 +66,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -448,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -462,46 +453,6 @@
     <col width="16" customWidth="1" min="1" max="1"/>
     <col width="5" customWidth="1" min="2" max="2"/>
     <col width="16" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="28" customWidth="1" min="5" max="5"/>
-    <col width="29" customWidth="1" min="6" max="6"/>
-    <col width="23" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="18" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
-    <col width="22" customWidth="1" min="11" max="11"/>
-    <col width="20" customWidth="1" min="12" max="12"/>
-    <col width="19" customWidth="1" min="13" max="13"/>
-    <col width="19" customWidth="1" min="14" max="14"/>
-    <col width="17" customWidth="1" min="15" max="15"/>
-    <col width="16" customWidth="1" min="16" max="16"/>
-    <col width="27" customWidth="1" min="17" max="17"/>
-    <col width="23" customWidth="1" min="18" max="18"/>
-    <col width="16" customWidth="1" min="19" max="19"/>
-    <col width="10" customWidth="1" min="20" max="20"/>
-    <col width="12" customWidth="1" min="21" max="21"/>
-    <col width="13" customWidth="1" min="22" max="22"/>
-    <col width="12" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
-    <col width="8" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="18" customWidth="1" min="29" max="29"/>
-    <col width="14" customWidth="1" min="30" max="30"/>
-    <col width="15" customWidth="1" min="31" max="31"/>
-    <col width="15" customWidth="1" min="32" max="32"/>
-    <col width="13" customWidth="1" min="33" max="33"/>
-    <col width="14" customWidth="1" min="34" max="34"/>
-    <col width="8" customWidth="1" min="35" max="35"/>
-    <col width="10" customWidth="1" min="36" max="36"/>
-    <col width="13" customWidth="1" min="37" max="37"/>
-    <col width="14" customWidth="1" min="38" max="38"/>
-    <col width="20" customWidth="1" min="39" max="39"/>
-    <col width="15" customWidth="1" min="40" max="40"/>
-    <col width="11" customWidth="1" min="41" max="41"/>
-    <col width="27" customWidth="1" min="42" max="42"/>
-    <col width="20" customWidth="1" min="43" max="43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -520,362 +471,72 @@
           <t>Data Inscrição</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Etiquetas:</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Aguardando mais Documentos</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Aguardando mais Informações</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>Analise de Documentos</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Aviação</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>AÇÃO DISTRIBUIDA</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>CADASTRADO</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>CLIENTE_DESISTIU_REC</t>
-        </is>
-      </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>CLIENTE_RECUPERADO</t>
-        </is>
-      </c>
-      <c r="M1" s="2" t="inlineStr">
-        <is>
-          <t>COMPLETOU_O_FLUXO</t>
-        </is>
-      </c>
-      <c r="N1" s="2" t="inlineStr">
-        <is>
-          <t>CONTRATO ASSINADO</t>
-        </is>
-      </c>
-      <c r="O1" s="2" t="inlineStr">
-        <is>
-          <t>ClienteDesistiu</t>
-        </is>
-      </c>
-      <c r="P1" s="2" t="inlineStr">
-        <is>
-          <t>Compras Online</t>
-        </is>
-      </c>
-      <c r="Q1" s="2" t="inlineStr">
-        <is>
-          <t>Consulta com os advogados</t>
-        </is>
-      </c>
-      <c r="R1" s="2" t="inlineStr">
-        <is>
-          <t>Contrato e Procuração</t>
-        </is>
-      </c>
-      <c r="S1" s="2" t="inlineStr">
-        <is>
-          <t>Desqualificado</t>
-        </is>
-      </c>
-      <c r="T1" s="2" t="inlineStr">
-        <is>
-          <t>ELEGÍVEL</t>
-        </is>
-      </c>
-      <c r="U1" s="2" t="inlineStr">
-        <is>
-          <t>EM ANÁLISE</t>
-        </is>
-      </c>
-      <c r="V1" s="2" t="inlineStr">
-        <is>
-          <t>ERRO NO BOT</t>
-        </is>
-      </c>
-      <c r="W1" s="2" t="inlineStr">
-        <is>
-          <t>Hospedagem</t>
-        </is>
-      </c>
-      <c r="X1" s="2" t="inlineStr">
-        <is>
-          <t>LEAD 1</t>
-        </is>
-      </c>
-      <c r="Y1" s="2" t="inlineStr">
-        <is>
-          <t>LEAD 2</t>
-        </is>
-      </c>
-      <c r="Z1" s="2" t="inlineStr">
-        <is>
-          <t>LEAD 3</t>
-        </is>
-      </c>
-      <c r="AA1" s="2" t="inlineStr">
-        <is>
-          <t>LEAD 4</t>
-        </is>
-      </c>
-      <c r="AB1" s="2" t="inlineStr">
-        <is>
-          <t>LEAD 5</t>
-        </is>
-      </c>
-      <c r="AC1" s="2" t="inlineStr">
-        <is>
-          <t>LEAD2_Recuperado</t>
-        </is>
-      </c>
-      <c r="AD1" s="2" t="inlineStr">
-        <is>
-          <t>LEAD4INATIVO</t>
-        </is>
-      </c>
-      <c r="AE1" s="2" t="inlineStr">
-        <is>
-          <t>Lead3_24horas</t>
-        </is>
-      </c>
-      <c r="AF1" s="2" t="inlineStr">
-        <is>
-          <t>Lead3_48Horas</t>
-        </is>
-      </c>
-      <c r="AG1" s="2" t="inlineStr">
-        <is>
-          <t>Negativação</t>
-        </is>
-      </c>
-      <c r="AH1" s="2" t="inlineStr">
-        <is>
-          <t>NÃO ELEGÍVEL</t>
-        </is>
-      </c>
-      <c r="AI1" s="2" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="AJ1" s="2" t="inlineStr">
-        <is>
-          <t>POSSÍVEL</t>
-        </is>
-      </c>
-      <c r="AK1" s="2" t="inlineStr">
-        <is>
-          <t>RECUPERAÇÃO</t>
-        </is>
-      </c>
-      <c r="AL1" s="2" t="inlineStr">
-        <is>
-          <t>SEM RESPOSTA</t>
-        </is>
-      </c>
-      <c r="AM1" s="2" t="inlineStr">
-        <is>
-          <t>Serviços Bancários</t>
-        </is>
-      </c>
-      <c r="AN1" s="2" t="inlineStr">
-        <is>
-          <t>TENTATIVA_REC</t>
-        </is>
-      </c>
-      <c r="AO1" s="2" t="inlineStr">
-        <is>
-          <t>Telefonia</t>
-        </is>
-      </c>
-      <c r="AP1" s="2" t="inlineStr">
-        <is>
-          <t>Verificando Elegibilidade</t>
-        </is>
-      </c>
-      <c r="AQ1" s="2" t="inlineStr">
-        <is>
-          <t>WhatsAppsInválidos</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>+553171858800</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>2024-09-30</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AG2" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>+5511976440031</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>2024-09-16</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M3" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N3" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AG3" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>+556293286544</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>62</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>2024-09-16</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M4" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N4" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AG4" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>+5521981400589</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>2024-09-09</t>
-        </is>
-      </c>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M5" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N5" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AI5" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
